--- a/PyTest_Framework/input_datasheet.xlsx
+++ b/PyTest_Framework/input_datasheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Flag</t>
   </si>
@@ -31,16 +31,19 @@
     <t>Password</t>
   </si>
   <si>
-    <t>http://localhost/opencart/</t>
-  </si>
-  <si>
     <t>TC01_Login_Valid_Credentials</t>
   </si>
   <si>
-    <t>nileshborse@gmail.com</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>pranilpalse7@gmail.com</t>
+  </si>
+  <si>
+    <t>pranil@123</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>http://localhost/opencartsite/</t>
   </si>
 </sst>
 </file>
@@ -64,10 +67,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -93,15 +98,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -407,16 +414,16 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
     <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -440,21 +447,26 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2">
-        <v>1234</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>